--- a/dados_saida/df_sarima.xlsx
+++ b/dados_saida/df_sarima.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,6 +2659,102 @@
         <v>68730.39</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B278" t="n">
+        <v>72241.82000000001</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B279" t="n">
+        <v>72188.64</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B280" t="n">
+        <v>72992.89</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B281" t="n">
+        <v>72794.59</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B282" t="n">
+        <v>103940.74</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B283" t="n">
+        <v>104995.75</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B284" t="n">
+        <v>74319.67999999999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B285" t="n">
+        <v>74779.09</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B286" t="n">
+        <v>75499.27</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B287" t="n">
+        <v>75636.17999999999</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B288" t="n">
+        <v>76754.21000000001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B289" t="n">
+        <v>74600.14999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
